--- a/biology/Zoologie/Gibbaranea_bituberculata/Gibbaranea_bituberculata.xlsx
+++ b/biology/Zoologie/Gibbaranea_bituberculata/Gibbaranea_bituberculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gibbaranea bituberculata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1]. En français, elle est appelée Épeire dromadaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gibbaranea bituberculata est une espèce d'araignées aranéomorphes de la famille des Araneidae. En français, elle est appelée Épeire dromadaire.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,8 à 5,7 mm et les femelles de 6,2 à 8,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,8 à 5,7 mm et les femelles de 6,2 à 8,9 mm.
 			Mâle Gibbarenea bituberculata vu de face, à Cadenet.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Gibbaranea bituberculata strandiana[3] a été placée en synonymie avec Gibbaranea bituberculata par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016[4].
-La sous-espèce Gibbaranea bituberculata cuculligera[5] a été placée en synonymie avec Gibbaranea bituberculata par Lissner et Bosmans en 2016[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Gibbaranea bituberculata strandiana a été placée en synonymie avec Gibbaranea bituberculata par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016.
+La sous-espèce Gibbaranea bituberculata cuculligera a été placée en synonymie avec Gibbaranea bituberculata par Lissner et Bosmans en 2016.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne. Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250.</t>
         </is>
